--- a/data/df_cmpt.xlsx
+++ b/data/df_cmpt.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P278"/>
+  <dimension ref="A1:Q278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>Per Night Rate</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Earnings Year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -530,7 +535,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HMABYEKREN</t>
+          <t>CD6ULfAVzb</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -572,6 +577,9 @@
       <c r="P2" t="n">
         <v>894.14</v>
       </c>
+      <c r="Q2" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -582,7 +590,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -602,6 +614,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -614,7 +627,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HMAQF2F2SD</t>
+          <t>6HAYGX6Dzk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -656,6 +669,9 @@
       <c r="P4" t="n">
         <v>1051.08</v>
       </c>
+      <c r="Q4" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -666,7 +682,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -686,6 +706,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,7 +719,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HMAETZQNXP</t>
+          <t>0bwUtlwVcn</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -740,6 +761,9 @@
       <c r="P6" t="n">
         <v>1158.75</v>
       </c>
+      <c r="Q6" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -750,7 +774,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -770,6 +798,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -782,7 +811,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HMARXPSZR2</t>
+          <t>FFOY3caOJQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -824,6 +853,9 @@
       <c r="P8" t="n">
         <v>895.88</v>
       </c>
+      <c r="Q8" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -834,7 +866,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -854,6 +890,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -866,7 +903,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HMAAFRHCEE</t>
+          <t>Z0dh7TvZMk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -908,6 +945,9 @@
       <c r="P10" t="n">
         <v>1435.2</v>
       </c>
+      <c r="Q10" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -918,7 +958,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -938,6 +982,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -950,7 +995,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HMAMQM9E2C</t>
+          <t>kZDxqX4bSU</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -992,6 +1037,9 @@
       <c r="P12" t="n">
         <v>1456.42</v>
       </c>
+      <c r="Q12" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1004,7 +1052,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HMAMQM9E2C</t>
+          <t>kZDxqX4bSU</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1032,6 +1080,9 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
+      <c r="Q13" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1042,7 +1093,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1062,6 +1117,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1074,7 +1130,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HMAD5MHPCA</t>
+          <t>dqgzqMVSGi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1116,6 +1172,9 @@
       <c r="P15" t="n">
         <v>920.08</v>
       </c>
+      <c r="Q15" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1128,7 +1187,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HMAD5MHPCA</t>
+          <t>dqgzqMVSGi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1156,6 +1215,9 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
+      <c r="Q16" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1166,7 +1228,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1186,6 +1252,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1198,7 +1265,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HMAKP5SRSR</t>
+          <t>GabvnHLxSP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1240,6 +1307,9 @@
       <c r="P18" t="n">
         <v>1157.78</v>
       </c>
+      <c r="Q18" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1250,7 +1320,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1270,6 +1344,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1282,7 +1357,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HMACSQPYEX</t>
+          <t>6K7wJOcOqc</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1324,6 +1399,9 @@
       <c r="P20" t="n">
         <v>1732.25</v>
       </c>
+      <c r="Q20" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1336,7 +1414,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HMACSQPYEX</t>
+          <t>6K7wJOcOqc</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1364,6 +1442,9 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
+      <c r="Q21" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1374,7 +1455,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1394,6 +1479,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1406,7 +1492,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HMN24JDZDK</t>
+          <t>SxL8WcNnLZ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1448,6 +1534,9 @@
       <c r="P23" t="n">
         <v>1173.3</v>
       </c>
+      <c r="Q23" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1458,7 +1547,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1478,6 +1571,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1490,7 +1584,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HMAFKZBY5E</t>
+          <t>g0eSMCiH1j</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1532,6 +1626,9 @@
       <c r="P25" t="n">
         <v>1158.27</v>
       </c>
+      <c r="Q25" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1542,7 +1639,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1562,6 +1663,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1574,7 +1676,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HMF8QMW4Z3</t>
+          <t>bF7NSYsIW8</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1616,6 +1718,9 @@
       <c r="P27" t="n">
         <v>974.45</v>
       </c>
+      <c r="Q27" s="2" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1626,7 +1731,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1646,6 +1755,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1658,7 +1768,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HMAEPBPS3F</t>
+          <t>wiNbgaKzNy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1700,6 +1810,9 @@
       <c r="P29" t="n">
         <v>1181.08</v>
       </c>
+      <c r="Q29" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1712,7 +1825,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HMAEPBPS3F</t>
+          <t>wiNbgaKzNy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1740,6 +1853,9 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
+      <c r="Q30" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1750,7 +1866,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1770,6 +1890,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1782,7 +1903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HM2FZDSRN9</t>
+          <t>cbQCpvN4n7</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1824,6 +1945,9 @@
       <c r="P32" t="n">
         <v>1236.35</v>
       </c>
+      <c r="Q32" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1834,7 +1958,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1854,6 +1982,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1866,7 +1995,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HM5HCQFACB</t>
+          <t>lNBab3aWBS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1908,6 +2037,9 @@
       <c r="P34" t="n">
         <v>1243.38</v>
       </c>
+      <c r="Q34" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1918,7 +2050,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -1938,6 +2074,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1950,7 +2087,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HMTXHQDR8N</t>
+          <t>s7w6hIGg2n</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1992,6 +2129,9 @@
       <c r="P36" t="n">
         <v>1156.02</v>
       </c>
+      <c r="Q36" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2002,7 +2142,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2022,6 +2166,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2034,7 +2179,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HMBE5AXAD8</t>
+          <t>ax7laraQhi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2076,6 +2221,9 @@
       <c r="P38" t="n">
         <v>1158.95</v>
       </c>
+      <c r="Q38" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2086,7 +2234,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2106,6 +2258,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2118,7 +2271,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HMXQ4TYWNX</t>
+          <t>q0Z179X1lI</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2160,6 +2313,9 @@
       <c r="P40" t="n">
         <v>1175.9</v>
       </c>
+      <c r="Q40" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2170,7 +2326,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2190,6 +2350,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2202,7 +2363,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HMZ98XHBHD</t>
+          <t>mI2ldhmowA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2244,6 +2405,9 @@
       <c r="P42" t="n">
         <v>1469.06</v>
       </c>
+      <c r="Q42" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2256,7 +2420,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HMZ98XHBHD</t>
+          <t>mI2ldhmowA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2284,6 +2448,9 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
+      <c r="Q43" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2294,7 +2461,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2314,6 +2485,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2326,7 +2498,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HM4YNBM39P</t>
+          <t>5e57yHezp4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2368,6 +2540,9 @@
       <c r="P45" t="n">
         <v>1205</v>
       </c>
+      <c r="Q45" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2378,7 +2553,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2398,6 +2577,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2410,7 +2590,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HM8KH9BBDY</t>
+          <t>9VlQfqeHF2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2452,6 +2632,9 @@
       <c r="P47" t="n">
         <v>1405.75</v>
       </c>
+      <c r="Q47" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2462,7 +2645,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2482,6 +2669,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2494,7 +2682,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HM8KH9BBDY</t>
+          <t>9VlQfqeHF2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2522,6 +2710,9 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
+      <c r="Q49" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2532,7 +2723,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2552,6 +2747,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2564,7 +2760,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HMRNW2WDT9</t>
+          <t>W6TqT80mqd</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2606,6 +2802,9 @@
       <c r="P51" t="n">
         <v>1352.1</v>
       </c>
+      <c r="Q51" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2618,7 +2817,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HMRNW2WDT9</t>
+          <t>W6TqT80mqd</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2646,6 +2845,9 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
+      <c r="Q52" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2656,7 +2858,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2676,6 +2882,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2688,7 +2895,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HMEMF8AXNF</t>
+          <t>17ojw6SVe0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2730,6 +2937,9 @@
       <c r="P54" t="n">
         <v>1236.6</v>
       </c>
+      <c r="Q54" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2740,7 +2950,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2760,6 +2974,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2772,7 +2987,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HM39BWYK9X</t>
+          <t>qSWABRoMCA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2814,6 +3029,9 @@
       <c r="P56" t="n">
         <v>1300.83</v>
       </c>
+      <c r="Q56" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2826,7 +3044,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HM39BWYK9X</t>
+          <t>qSWABRoMCA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2854,6 +3072,9 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2864,7 +3085,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2884,6 +3109,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2896,7 +3122,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HMQHRWD4R9</t>
+          <t>KAtMBsGh6l</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2938,6 +3164,9 @@
       <c r="P59" t="n">
         <v>1349.77</v>
       </c>
+      <c r="Q59" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2948,7 +3177,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -2968,6 +3201,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2980,7 +3214,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HM9XTHCBHZ</t>
+          <t>Vx1pp280Mn</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3022,6 +3256,9 @@
       <c r="P61" t="n">
         <v>1208.75</v>
       </c>
+      <c r="Q61" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3032,7 +3269,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3052,6 +3293,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3064,7 +3306,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HMCCKBKBED</t>
+          <t>WlTER2Y0FB</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3106,6 +3348,9 @@
       <c r="P63" t="n">
         <v>1058.53</v>
       </c>
+      <c r="Q63" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3116,7 +3361,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3136,6 +3385,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3148,7 +3398,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HMR5E4FTXS</t>
+          <t>w7g5QjX6vG</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3190,6 +3440,9 @@
       <c r="P65" t="n">
         <v>635.35</v>
       </c>
+      <c r="Q65" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3200,7 +3453,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3220,6 +3477,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3232,7 +3490,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HMP3R9PD9X</t>
+          <t>UJ21KJV09V</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3274,6 +3532,9 @@
       <c r="P67" t="n">
         <v>965</v>
       </c>
+      <c r="Q67" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3284,7 +3545,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3304,6 +3569,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3316,7 +3582,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HMMP9SM3NT</t>
+          <t>iEsWsPVire</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3358,6 +3624,9 @@
       <c r="P69" t="n">
         <v>965</v>
       </c>
+      <c r="Q69" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3368,7 +3637,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3388,6 +3661,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3400,7 +3674,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HMAFZ999B9</t>
+          <t>joFy4cpJhR</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3442,6 +3716,9 @@
       <c r="P71" t="n">
         <v>664.45</v>
       </c>
+      <c r="Q71" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3452,7 +3729,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3472,6 +3753,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3484,7 +3766,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HMAKNJQJYA</t>
+          <t>biySoUIou9</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3526,6 +3808,9 @@
       <c r="P73" t="n">
         <v>556.64</v>
       </c>
+      <c r="Q73" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3536,7 +3821,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3556,6 +3845,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -3568,7 +3858,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HMZBPA8JTT</t>
+          <t>cA3szFChZC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3610,6 +3900,9 @@
       <c r="P75" t="n">
         <v>1425.7</v>
       </c>
+      <c r="Q75" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -3620,7 +3913,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3640,6 +3937,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -3652,7 +3950,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HMZYRRH3RB</t>
+          <t>ezZl4Tm7Yb</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3694,6 +3992,9 @@
       <c r="P77" t="n">
         <v>1125.45</v>
       </c>
+      <c r="Q77" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -3704,7 +4005,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3724,6 +4029,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -3736,7 +4042,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HMW3JMS4TS</t>
+          <t>Imx1Hf7MYK</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3778,6 +4084,9 @@
       <c r="P79" t="n">
         <v>967</v>
       </c>
+      <c r="Q79" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -3788,7 +4097,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3808,6 +4121,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -3820,7 +4134,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HMMZYAKS22</t>
+          <t>eTLksL5MYC</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3862,6 +4176,9 @@
       <c r="P81" t="n">
         <v>1624.42</v>
       </c>
+      <c r="Q81" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -3874,7 +4191,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HMMZYAKS22</t>
+          <t>eTLksL5MYC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3902,6 +4219,9 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
+      <c r="Q82" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -3912,7 +4232,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -3932,6 +4256,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -3944,7 +4269,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HMEEK2TMAW</t>
+          <t>M5NrqEb9jQ</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3986,6 +4311,9 @@
       <c r="P84" t="n">
         <v>1140.34</v>
       </c>
+      <c r="Q84" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -3998,7 +4326,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HMEEK2TMAW</t>
+          <t>M5NrqEb9jQ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4026,6 +4354,9 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
+      <c r="Q85" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4038,7 +4369,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HMMZYAKS22</t>
+          <t>eTLksL5MYC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4070,6 +4401,9 @@
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
+      <c r="Q86" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4080,7 +4414,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -4100,6 +4438,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4112,7 +4451,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>HMJDKFRQ2N</t>
+          <t>gZXX4tBNXW</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4154,6 +4493,9 @@
       <c r="P88" t="n">
         <v>1405.7</v>
       </c>
+      <c r="Q88" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4166,7 +4508,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HMJDKFRQ2N</t>
+          <t>gZXX4tBNXW</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4194,6 +4536,9 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
+      <c r="Q89" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4204,7 +4549,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -4224,6 +4573,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4236,7 +4586,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HM3QSQPF4P</t>
+          <t>oPWmS1iZkM</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4278,6 +4628,9 @@
       <c r="P91" t="n">
         <v>1067.9</v>
       </c>
+      <c r="Q91" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4290,7 +4643,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HMB9EACSNX</t>
+          <t>zWN7NZRbWf</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4312,7 +4665,7 @@
         <v>13</v>
       </c>
       <c r="J92" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K92" s="2" t="n">
         <v>43918</v>
@@ -4329,8 +4682,9 @@
       <c r="O92" t="n">
         <v>0</v>
       </c>
-      <c r="P92" t="n">
-        <v>0</v>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" s="2" t="n">
+        <v>43831</v>
       </c>
     </row>
     <row r="93">
@@ -4342,7 +4696,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -4362,6 +4720,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4374,7 +4733,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>HM3QSQPF4P</t>
+          <t>oPWmS1iZkM</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4406,6 +4765,9 @@
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
+      <c r="Q94" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -4418,7 +4780,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HMB9EACSNX</t>
+          <t>zWN7NZRbWf</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4450,6 +4812,9 @@
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
+      <c r="Q95" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -4460,7 +4825,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -4480,6 +4849,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -4492,7 +4862,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HM3QSQPF4P</t>
+          <t>oPWmS1iZkM</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4524,6 +4894,9 @@
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
+      <c r="Q97" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -4536,7 +4909,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HM3QSQPF4P</t>
+          <t>oPWmS1iZkM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4568,6 +4941,9 @@
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
+      <c r="Q98" s="2" t="n">
+        <v>43831</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -4578,7 +4954,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -4598,6 +4978,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -4610,7 +4991,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HMTHR4KKR3</t>
+          <t>ZgUmr9lMav</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4652,6 +5033,9 @@
       <c r="P100" t="n">
         <v>18.98</v>
       </c>
+      <c r="Q100" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -4664,7 +5048,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HMB2EFJPRN</t>
+          <t>AFVv1J5ZEe</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4706,6 +5090,9 @@
       <c r="P101" t="n">
         <v>1219.58</v>
       </c>
+      <c r="Q101" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -4716,7 +5103,11 @@
           <t>Misc Credit</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4736,6 +5127,9 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
+      <c r="Q102" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -4748,7 +5142,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HM3QSQPF4P</t>
+          <t>oPWmS1iZkM</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4776,6 +5170,9 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
+      <c r="Q103" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -4786,7 +5183,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -4806,6 +5207,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -4818,7 +5220,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HMBXYHYM52</t>
+          <t>RHDmyE9GgM</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4860,6 +5262,9 @@
       <c r="P105" t="n">
         <v>888.9</v>
       </c>
+      <c r="Q105" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -4870,7 +5275,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -4890,6 +5299,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -4902,7 +5312,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HM923AKSTT</t>
+          <t>D8vsce0WQi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4944,6 +5354,9 @@
       <c r="P107" t="n">
         <v>1045.5</v>
       </c>
+      <c r="Q107" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -4954,7 +5367,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -4974,6 +5391,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -4986,7 +5404,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>HMHXNZC3CQ</t>
+          <t>DO7Imhy47S</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5028,6 +5446,9 @@
       <c r="P109" t="n">
         <v>801.0599999999999</v>
       </c>
+      <c r="Q109" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5038,7 +5459,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5058,6 +5483,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5070,7 +5496,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>HMSHQF43PA</t>
+          <t>1w10UMQryB</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5098,6 +5524,9 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
+      <c r="Q111" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5108,7 +5537,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5128,6 +5561,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5140,7 +5574,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>HM52BWQRDS</t>
+          <t>gGZhLyKBK5</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5182,6 +5616,9 @@
       <c r="P113" t="n">
         <v>1160.26</v>
       </c>
+      <c r="Q113" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5192,7 +5629,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5212,6 +5653,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5224,7 +5666,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>HMJJYFHBH9</t>
+          <t>gk5ifFxMjE</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5266,6 +5708,9 @@
       <c r="P115" t="n">
         <v>797.91</v>
       </c>
+      <c r="Q115" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -5276,7 +5721,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5296,6 +5745,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -5308,7 +5758,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HMSQZQK54H</t>
+          <t>BQrRe12yQU</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5350,6 +5800,9 @@
       <c r="P117" t="n">
         <v>1187.36</v>
       </c>
+      <c r="Q117" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -5360,7 +5813,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5380,6 +5837,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -5392,7 +5850,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HMQTWM2TD9</t>
+          <t>nR6KGgatkR</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5434,6 +5892,9 @@
       <c r="P119" t="n">
         <v>753.61</v>
       </c>
+      <c r="Q119" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -5444,7 +5905,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5464,6 +5929,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -5476,7 +5942,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HMKPYF5DM9</t>
+          <t>jYjs8ZoRGl</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5518,6 +5984,9 @@
       <c r="P121" t="n">
         <v>1254.78</v>
       </c>
+      <c r="Q121" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -5528,7 +5997,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5548,6 +6021,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -5560,7 +6034,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HM4JTM9SZ2</t>
+          <t>lm3vedtrUH</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5602,6 +6076,9 @@
       <c r="P123" t="n">
         <v>1110.25</v>
       </c>
+      <c r="Q123" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -5612,7 +6089,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5632,6 +6113,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -5644,7 +6126,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HMK52RHRDT</t>
+          <t>z3sOWGjSQc</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5686,6 +6168,9 @@
       <c r="P125" t="n">
         <v>1149.25</v>
       </c>
+      <c r="Q125" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -5696,7 +6181,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5716,6 +6205,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -5728,7 +6218,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HM9T3CRRRB</t>
+          <t>kvBdn39GGF</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5770,6 +6260,9 @@
       <c r="P127" t="n">
         <v>753.61</v>
       </c>
+      <c r="Q127" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -5780,7 +6273,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5800,6 +6297,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -5812,7 +6310,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HMZY3F58Q9</t>
+          <t>iD4ICDuoio</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5854,6 +6352,9 @@
       <c r="P129" t="n">
         <v>1110.25</v>
       </c>
+      <c r="Q129" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -5864,7 +6365,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5884,6 +6389,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -5896,7 +6402,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HM4ZRP9RMR</t>
+          <t>nAKrRZqrCf</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5938,6 +6444,9 @@
       <c r="P131" t="n">
         <v>1274.66</v>
       </c>
+      <c r="Q131" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -5948,7 +6457,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -5968,6 +6481,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -5980,7 +6494,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HMEZPNPHWX</t>
+          <t>fzlrJgC8Sm</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6022,6 +6536,9 @@
       <c r="P133" t="n">
         <v>1118.07</v>
       </c>
+      <c r="Q133" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6032,7 +6549,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6052,6 +6573,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6064,7 +6586,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HMS2NN9JCD</t>
+          <t>wT0bOXxkSB</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6106,6 +6628,9 @@
       <c r="P135" t="n">
         <v>1160.84</v>
       </c>
+      <c r="Q135" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6116,7 +6641,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6136,6 +6665,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -6148,7 +6678,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HM843QN9XJ</t>
+          <t>BPTTlqXn5a</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6190,6 +6720,9 @@
       <c r="P137" t="n">
         <v>1443.53</v>
       </c>
+      <c r="Q137" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -6200,7 +6733,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6220,6 +6757,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -6232,7 +6770,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HMSHQF43PA</t>
+          <t>1w10UMQryB</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6274,6 +6812,9 @@
       <c r="P139" t="n">
         <v>1260.25</v>
       </c>
+      <c r="Q139" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -6284,7 +6825,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6304,6 +6849,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -6316,7 +6862,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HMPAKD2XAT</t>
+          <t>zoAYeEizch</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6358,6 +6904,9 @@
       <c r="P141" t="n">
         <v>1325.68</v>
       </c>
+      <c r="Q141" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -6370,7 +6919,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>HMPAKD2XAT</t>
+          <t>zoAYeEizch</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6398,6 +6947,9 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
+      <c r="Q142" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -6408,7 +6960,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6428,6 +6984,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -6440,7 +6997,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HMX4WBSB8K</t>
+          <t>w6niMzeYht</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6482,6 +7039,9 @@
       <c r="P144" t="n">
         <v>1351.78</v>
       </c>
+      <c r="Q144" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -6492,7 +7052,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6512,6 +7076,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -6524,7 +7089,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HMK448NX59</t>
+          <t>hTzXf1vPVo</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6566,6 +7131,9 @@
       <c r="P146" t="n">
         <v>1257.65</v>
       </c>
+      <c r="Q146" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -6576,7 +7144,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6596,6 +7168,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -6608,7 +7181,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>HMNTTEAQ25</t>
+          <t>ZJH8PJ1xf7</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6650,6 +7223,9 @@
       <c r="P148" t="n">
         <v>1117.72</v>
       </c>
+      <c r="Q148" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -6660,7 +7236,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6680,6 +7260,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -6692,7 +7273,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HMD5BTNN3E</t>
+          <t>YJK3QHGf3S</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6734,6 +7315,9 @@
       <c r="P150" t="n">
         <v>630.01</v>
       </c>
+      <c r="Q150" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -6744,7 +7328,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6764,6 +7352,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -6776,7 +7365,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HMKCCDC5CF</t>
+          <t>30R7Ma4Mey</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6818,6 +7407,9 @@
       <c r="P152" t="n">
         <v>1351.78</v>
       </c>
+      <c r="Q152" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -6828,7 +7420,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6848,6 +7444,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -6860,7 +7457,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>HMJWTCSBWQ</t>
+          <t>DJl06b5tPE</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6902,6 +7499,9 @@
       <c r="P154" t="n">
         <v>1468.4</v>
       </c>
+      <c r="Q154" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -6912,7 +7512,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -6932,6 +7536,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -6944,7 +7549,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HMPQCFZBDM</t>
+          <t>0IaXBuNrkk</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6986,6 +7591,9 @@
       <c r="P156" t="n">
         <v>1112.88</v>
       </c>
+      <c r="Q156" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -6996,7 +7604,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7016,6 +7628,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -7028,7 +7641,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HMNS53YDRT</t>
+          <t>B0Vx0YqiCF</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7070,6 +7683,9 @@
       <c r="P158" t="n">
         <v>1242.39</v>
       </c>
+      <c r="Q158" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -7080,7 +7696,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7100,6 +7720,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -7112,7 +7733,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>HMNQ3N8QNK</t>
+          <t>dwKzKO5jEU</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7154,6 +7775,9 @@
       <c r="P160" t="n">
         <v>1242.39</v>
       </c>
+      <c r="Q160" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -7164,7 +7788,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7184,6 +7812,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -7196,7 +7825,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HM2RTRZNRD</t>
+          <t>dqEQEoGixJ</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7238,6 +7867,9 @@
       <c r="P162" t="n">
         <v>1443</v>
       </c>
+      <c r="Q162" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -7248,7 +7880,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7268,6 +7904,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -7280,7 +7917,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HMPPZPBPP5</t>
+          <t>4Suj7vq0Z3</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7322,6 +7959,9 @@
       <c r="P164" t="n">
         <v>1112</v>
       </c>
+      <c r="Q164" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -7332,7 +7972,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7352,6 +7996,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -7364,7 +8009,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HM9WSB8ET8</t>
+          <t>q2xRSBpuJu</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7406,6 +8051,9 @@
       <c r="P166" t="n">
         <v>1327.75</v>
       </c>
+      <c r="Q166" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -7416,7 +8064,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7436,6 +8088,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -7448,7 +8101,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HM9ZB59NBQ</t>
+          <t>eJLJpaVh1G</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7490,6 +8143,9 @@
       <c r="P168" t="n">
         <v>1415.32</v>
       </c>
+      <c r="Q168" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -7500,7 +8156,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7520,6 +8180,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -7532,7 +8193,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>HMDNM8QZH3</t>
+          <t>m6jrhd83Yj</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7574,6 +8235,9 @@
       <c r="P170" t="n">
         <v>1157.03</v>
       </c>
+      <c r="Q170" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -7584,7 +8248,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7604,6 +8272,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -7616,7 +8285,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HM4CSFP5E9</t>
+          <t>QCE7fp9u9k</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7658,6 +8327,9 @@
       <c r="P172" t="n">
         <v>1254.78</v>
       </c>
+      <c r="Q172" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -7668,7 +8340,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7688,6 +8364,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -7700,7 +8377,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>HMQHSXCTS9</t>
+          <t>er3kRuS0ol</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7742,6 +8419,9 @@
       <c r="P174" t="n">
         <v>1240.51</v>
       </c>
+      <c r="Q174" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -7752,7 +8432,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7772,6 +8456,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -7784,7 +8469,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HMSFDE9AFY</t>
+          <t>DpmUfRkPmb</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7826,6 +8511,9 @@
       <c r="P176" t="n">
         <v>1242.39</v>
       </c>
+      <c r="Q176" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -7836,7 +8524,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7856,6 +8548,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -7868,7 +8561,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HMTCDBYHBC</t>
+          <t>HqnlxVvMUD</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7910,6 +8603,9 @@
       <c r="P178" t="n">
         <v>1383.28</v>
       </c>
+      <c r="Q178" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -7920,7 +8616,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -7940,6 +8640,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -7952,7 +8653,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>HMBACQ4XPJ</t>
+          <t>tiUDsJa3dn</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7994,6 +8695,9 @@
       <c r="P180" t="n">
         <v>1248.7</v>
       </c>
+      <c r="Q180" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -8004,7 +8708,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8024,6 +8732,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -8036,7 +8745,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HMX352S489</t>
+          <t>YQnh6vBwPB</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8078,6 +8787,9 @@
       <c r="P182" t="n">
         <v>1243.84</v>
       </c>
+      <c r="Q182" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -8088,7 +8800,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8108,6 +8824,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -8120,7 +8837,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HMBNRYEHN9</t>
+          <t>uP7ERuuodO</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8162,6 +8879,9 @@
       <c r="P184" t="n">
         <v>1555.7</v>
       </c>
+      <c r="Q184" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -8172,7 +8892,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8192,6 +8916,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -8204,7 +8929,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HMAJHRZRSP</t>
+          <t>ZY5n9A3Qng</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8246,6 +8971,9 @@
       <c r="P186" t="n">
         <v>1353.53</v>
       </c>
+      <c r="Q186" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -8256,7 +8984,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D187" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8276,6 +9008,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -8288,7 +9021,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HMRD5BDH8Y</t>
+          <t>QK4v47NJws</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8330,6 +9063,9 @@
       <c r="P188" t="n">
         <v>1249</v>
       </c>
+      <c r="Q188" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -8340,7 +9076,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8360,6 +9100,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -8372,7 +9113,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HMND4PJTN8</t>
+          <t>zDPyT06aSG</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8414,6 +9155,9 @@
       <c r="P190" t="n">
         <v>1706.85</v>
       </c>
+      <c r="Q190" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -8426,7 +9170,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HMND4PJTN8</t>
+          <t>zDPyT06aSG</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -8454,6 +9198,9 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
+      <c r="Q191" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -8464,7 +9211,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8484,6 +9235,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -8494,7 +9246,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8514,6 +9270,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -8526,7 +9283,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HMTK5AYY5P</t>
+          <t>jt9j1wE4Ij</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -8568,6 +9325,9 @@
       <c r="P194" t="n">
         <v>1242.39</v>
       </c>
+      <c r="Q194" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -8578,7 +9338,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8598,6 +9362,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -8610,7 +9375,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HMP8FF88AT</t>
+          <t>wxNoJk3xT0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -8652,6 +9417,9 @@
       <c r="P196" t="n">
         <v>1256.53</v>
       </c>
+      <c r="Q196" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -8662,7 +9430,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8682,6 +9454,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -8694,7 +9467,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HM2JM4BTXD</t>
+          <t>3EkE4XZabu</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8736,6 +9509,9 @@
       <c r="P198" t="n">
         <v>1322.9</v>
       </c>
+      <c r="Q198" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -8746,7 +9522,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8766,6 +9546,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -8778,7 +9559,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>HMTYY2A9YR</t>
+          <t>e05cKC3FC2</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8820,6 +9601,9 @@
       <c r="P200" t="n">
         <v>1463.55</v>
       </c>
+      <c r="Q200" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -8830,7 +9614,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8850,6 +9638,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -8862,7 +9651,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HM543F92BE</t>
+          <t>A6Tt5TQf6r</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8904,6 +9693,9 @@
       <c r="P202" t="n">
         <v>1248.59</v>
       </c>
+      <c r="Q202" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -8914,7 +9706,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -8934,6 +9730,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -8946,7 +9743,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>HMBYQXTJKM</t>
+          <t>ukGQjP4fmU</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8988,6 +9785,9 @@
       <c r="P204" t="n">
         <v>1251.83</v>
       </c>
+      <c r="Q204" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -8998,7 +9798,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9018,6 +9822,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -9030,7 +9835,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HMQ4Q82HWC</t>
+          <t>1vzYEnkayj</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -9072,6 +9877,9 @@
       <c r="P206" t="n">
         <v>1332.6</v>
       </c>
+      <c r="Q206" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -9082,7 +9890,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9102,6 +9914,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -9114,7 +9927,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>HMXS38DJ9R</t>
+          <t>bjRi9ZeM2v</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9156,6 +9969,9 @@
       <c r="P208" t="n">
         <v>1242.39</v>
       </c>
+      <c r="Q208" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -9166,7 +9982,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9186,6 +10006,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -9198,7 +10019,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HMKQQT9JFD</t>
+          <t>qgIG6t1fMr</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9240,6 +10061,9 @@
       <c r="P210" t="n">
         <v>1279.52</v>
       </c>
+      <c r="Q210" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -9250,7 +10074,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9270,6 +10098,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -9282,7 +10111,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>HMESMKZBN9</t>
+          <t>VbQ0I8kAol</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -9324,6 +10153,9 @@
       <c r="P212" t="n">
         <v>1293.8</v>
       </c>
+      <c r="Q212" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -9334,7 +10166,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9354,6 +10190,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -9366,7 +10203,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>HMNY8EX52N</t>
+          <t>PlWQFzhQXs</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -9408,6 +10245,9 @@
       <c r="P214" t="n">
         <v>1408.97</v>
       </c>
+      <c r="Q214" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -9418,7 +10258,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D215" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9438,6 +10282,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -9450,7 +10295,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>HMZ4B2AYNE</t>
+          <t>tWgAOXqBP9</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -9492,6 +10337,9 @@
       <c r="P216" t="n">
         <v>630.02</v>
       </c>
+      <c r="Q216" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -9502,7 +10350,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9522,6 +10374,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -9534,7 +10387,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>HMQZKJQMRB</t>
+          <t>dpKPZW4v2e</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -9576,6 +10429,9 @@
       <c r="P218" t="n">
         <v>1287.39</v>
       </c>
+      <c r="Q218" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -9586,7 +10442,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D219" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9606,6 +10466,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -9618,7 +10479,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>HMSRB4ZH5N</t>
+          <t>CWkavgBm4E</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -9660,6 +10521,9 @@
       <c r="P220" t="n">
         <v>1268.1</v>
       </c>
+      <c r="Q220" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -9670,7 +10534,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D221" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9690,6 +10558,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -9702,7 +10571,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>HMSWXQKB5Y</t>
+          <t>u4wCf1EPok</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -9744,6 +10613,9 @@
       <c r="P222" t="n">
         <v>1288.95</v>
       </c>
+      <c r="Q222" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -9754,7 +10626,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D223" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9774,6 +10650,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -9786,7 +10663,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>HM83H4FK24</t>
+          <t>4fxADVWCeX</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -9828,6 +10705,9 @@
       <c r="P224" t="n">
         <v>1388.82</v>
       </c>
+      <c r="Q224" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -9840,7 +10720,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>HM83H4FK24</t>
+          <t>4fxADVWCeX</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -9868,6 +10748,9 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr"/>
+      <c r="Q225" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -9878,7 +10761,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D226" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9898,6 +10785,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -9908,7 +10796,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -9928,6 +10820,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -9940,7 +10833,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>HMBBCXXC9R</t>
+          <t>q0TIIxz8nw</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9982,6 +10875,9 @@
       <c r="P228" t="n">
         <v>1245.39</v>
       </c>
+      <c r="Q228" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -9992,7 +10888,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10012,6 +10912,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -10024,7 +10925,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>HMFA48NA4Y</t>
+          <t>YW6p1nxXCJ</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10066,6 +10967,9 @@
       <c r="P230" t="n">
         <v>1329.6</v>
       </c>
+      <c r="Q230" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -10078,7 +10982,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>HM3ARTMQBK</t>
+          <t>tOmjMqk8fR</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -10120,6 +11024,9 @@
       <c r="P231" t="n">
         <v>1410.03</v>
       </c>
+      <c r="Q231" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -10132,7 +11039,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>HM3ARTMQBK</t>
+          <t>tOmjMqk8fR</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -10160,6 +11067,9 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr"/>
+      <c r="Q232" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -10170,7 +11080,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10190,6 +11104,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -10202,7 +11117,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>HM8MQSCERK</t>
+          <t>QzAaWV1wZm</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -10244,6 +11159,9 @@
       <c r="P234" t="n">
         <v>1274.44</v>
       </c>
+      <c r="Q234" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -10254,7 +11172,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10274,6 +11196,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -10286,7 +11209,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>HMXKEHAD89</t>
+          <t>nL112bPG1C</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10328,6 +11251,9 @@
       <c r="P236" t="n">
         <v>1242.39</v>
       </c>
+      <c r="Q236" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -10338,7 +11264,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr"/>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10358,6 +11288,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -10370,7 +11301,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>HMC4ZTD4S5</t>
+          <t>bVVrn5qpvR</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10412,6 +11343,9 @@
       <c r="P238" t="n">
         <v>1268.96</v>
       </c>
+      <c r="Q238" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -10422,7 +11356,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10442,6 +11380,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -10454,7 +11393,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>HMBZM3CMMY</t>
+          <t>N4NuMoRCWE</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -10496,6 +11435,9 @@
       <c r="P240" t="n">
         <v>1283.65</v>
       </c>
+      <c r="Q240" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -10506,7 +11448,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10526,6 +11472,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -10538,7 +11485,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>HM9HY833WK</t>
+          <t>vtQXwrt5kM</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -10580,6 +11527,9 @@
       <c r="P242" t="n">
         <v>1239.39</v>
       </c>
+      <c r="Q242" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -10590,7 +11540,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10610,6 +11564,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -10622,7 +11577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>HMK2QF2DKA</t>
+          <t>wL8wCHNiYB</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -10664,6 +11619,9 @@
       <c r="P244" t="n">
         <v>1256.53</v>
       </c>
+      <c r="Q244" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -10674,7 +11632,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10694,6 +11656,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -10706,7 +11669,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>HMJF2KH3HT</t>
+          <t>AX14LxaEc2</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -10748,6 +11711,9 @@
       <c r="P246" t="n">
         <v>1298.65</v>
       </c>
+      <c r="Q246" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -10758,7 +11724,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr"/>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10778,6 +11748,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -10790,7 +11761,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>HM4PMSXKYB</t>
+          <t>ztUPXGBRrg</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -10832,6 +11803,9 @@
       <c r="P248" t="n">
         <v>1239.39</v>
       </c>
+      <c r="Q248" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -10842,7 +11816,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr"/>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10862,6 +11840,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -10874,7 +11853,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>HMYZFJQTSB</t>
+          <t>zV3ec2F2yP</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -10916,6 +11895,9 @@
       <c r="P250" t="n">
         <v>1270.42</v>
       </c>
+      <c r="Q250" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -10926,7 +11908,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -10946,6 +11932,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -10958,7 +11945,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>HMZX83PXFA</t>
+          <t>HJ3FpFPRwK</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -11000,6 +11987,9 @@
       <c r="P252" t="n">
         <v>1354.4</v>
       </c>
+      <c r="Q252" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -11010,7 +12000,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr"/>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D253" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11030,6 +12024,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -11042,7 +12037,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>HMATE95PDX</t>
+          <t>jOMyZjDCdy</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11084,6 +12079,9 @@
       <c r="P254" t="n">
         <v>1236.39</v>
       </c>
+      <c r="Q254" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -11094,7 +12092,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D255" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11114,6 +12116,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -11126,7 +12129,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>HM38HBFTH3</t>
+          <t>jlU50k7Z9q</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11168,6 +12171,9 @@
       <c r="P256" t="n">
         <v>1260.03</v>
       </c>
+      <c r="Q256" s="2" t="n">
+        <v>44562</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -11178,7 +12184,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D257" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11198,6 +12208,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -11210,7 +12221,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>HM3MQPBJBW</t>
+          <t>bAIvUfBHdc</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -11252,6 +12263,9 @@
       <c r="P258" t="n">
         <v>1239.39</v>
       </c>
+      <c r="Q258" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -11262,7 +12276,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11282,6 +12300,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -11294,7 +12313,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>HMDY8XRC5B</t>
+          <t>HxoKRud8Me</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -11336,6 +12355,9 @@
       <c r="P260" t="n">
         <v>1256.53</v>
       </c>
+      <c r="Q260" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -11346,7 +12368,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D261" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11366,6 +12392,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -11378,7 +12405,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>HMRP5SMHXH</t>
+          <t>oV38Uc56jI</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -11420,6 +12447,9 @@
       <c r="P262" t="n">
         <v>405.96</v>
       </c>
+      <c r="Q262" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -11430,7 +12460,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D263" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11450,6 +12484,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -11462,7 +12497,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>HM55AHHS95</t>
+          <t>VJcYTuJ126</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -11504,6 +12539,9 @@
       <c r="P264" t="n">
         <v>1251.05</v>
       </c>
+      <c r="Q264" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -11516,7 +12554,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>HMRP5SMHXH</t>
+          <t>oV38Uc56jI</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -11544,6 +12582,9 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr"/>
+      <c r="Q265" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -11554,7 +12595,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D266" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11574,6 +12619,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -11586,7 +12632,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>HMNKZ8T5CK</t>
+          <t>aFeKh6gRHs</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -11628,6 +12674,9 @@
       <c r="P267" t="n">
         <v>1247.59</v>
       </c>
+      <c r="Q267" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -11638,7 +12687,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D268" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11658,6 +12711,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -11670,7 +12724,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>HM3MKKKJCT</t>
+          <t>L1CrsSOR0F</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -11712,6 +12766,9 @@
       <c r="P269" t="n">
         <v>1340.39</v>
       </c>
+      <c r="Q269" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -11722,7 +12779,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D270" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11742,6 +12803,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -11754,7 +12816,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>HMF48393S4</t>
+          <t>GNwf9wsKMl</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -11796,6 +12858,9 @@
       <c r="P271" t="n">
         <v>1264.74</v>
       </c>
+      <c r="Q271" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -11806,7 +12871,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D272" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11826,6 +12895,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -11838,7 +12908,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>HMB3WQ5P3B</t>
+          <t>TYcrtQeomT</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -11880,6 +12950,9 @@
       <c r="P273" t="n">
         <v>1353.9</v>
       </c>
+      <c r="Q273" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -11890,7 +12963,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11910,6 +12987,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -11922,7 +13000,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>HMCRYM5SMM</t>
+          <t>WgjxKERXJ7</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -11964,6 +13042,9 @@
       <c r="P275" t="n">
         <v>1246.59</v>
       </c>
+      <c r="Q275" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -11974,7 +13055,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D276" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -11994,6 +13079,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -12006,7 +13092,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>HMQ2TSTFTP</t>
+          <t>c0xag43jPa</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -12048,6 +13134,9 @@
       <c r="P277" t="n">
         <v>1247.24</v>
       </c>
+      <c r="Q277" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -12058,7 +13147,11 @@
           <t>Payout</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>39LaRwa0vs</t>
+        </is>
+      </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>PHP</t>
@@ -12078,6 +13171,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr"/>
       <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
